--- a/data/trans_orig/P57C2_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>18996</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11366</v>
+        <v>11684</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29867</v>
+        <v>29704</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03813429743823876</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02281668259875274</v>
+        <v>0.02345570056034335</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0599578226301976</v>
+        <v>0.05963042310752426</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -762,19 +762,19 @@
         <v>26723</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17724</v>
+        <v>18660</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39401</v>
+        <v>39428</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04303903855923112</v>
+        <v>0.04303903855923111</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02854493735612949</v>
+        <v>0.03005358680055365</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06345694667498007</v>
+        <v>0.06350068049601096</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -783,19 +783,19 @@
         <v>45719</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34715</v>
+        <v>33672</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61433</v>
+        <v>61497</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04085573323247389</v>
+        <v>0.04085573323247387</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0310226036162286</v>
+        <v>0.03009006793099687</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05489820778680201</v>
+        <v>0.05495521653644499</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>45598</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34230</v>
+        <v>34217</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59472</v>
+        <v>60694</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.091538550661509</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06871678598457304</v>
+        <v>0.06869187820846887</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1193902135243697</v>
+        <v>0.1218447322808133</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>102</v>
@@ -833,19 +833,19 @@
         <v>66679</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>54136</v>
+        <v>55303</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>79326</v>
+        <v>80746</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1073902892705492</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08718863709638842</v>
+        <v>0.08906804873604046</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1277587903370969</v>
+        <v>0.1300450667682812</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>154</v>
@@ -854,19 +854,19 @@
         <v>112277</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>94763</v>
+        <v>93546</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>132181</v>
+        <v>130502</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1003340176978554</v>
+        <v>0.1003340176978553</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08468318948340128</v>
+        <v>0.08359491247956075</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1181202590343463</v>
+        <v>0.1166199015149536</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>109674</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>87237</v>
+        <v>89810</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>131246</v>
+        <v>133156</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2201718240304188</v>
+        <v>0.2201718240304189</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1751300091147636</v>
+        <v>0.1802955258482825</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2634772606589945</v>
+        <v>0.2673127059062566</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>183</v>
@@ -904,19 +904,19 @@
         <v>118770</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>102844</v>
+        <v>102419</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>136509</v>
+        <v>137177</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1912841920396167</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1656354342746694</v>
+        <v>0.1649511367529203</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2198545764019395</v>
+        <v>0.2209301333344107</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>287</v>
@@ -925,19 +925,19 @@
         <v>228443</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>200561</v>
+        <v>203348</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>256446</v>
+        <v>258848</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.20414328475156</v>
+        <v>0.2041432847515599</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1792271701101217</v>
+        <v>0.1817171285862798</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2291669003985242</v>
+        <v>0.2313132619122085</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>179568</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>155640</v>
+        <v>154792</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>204634</v>
+        <v>205202</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3604853877419704</v>
+        <v>0.3604853877419705</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3124495909026013</v>
+        <v>0.3107473076890452</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4108046918492435</v>
+        <v>0.4119459551400622</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>334</v>
@@ -975,19 +975,19 @@
         <v>244298</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>221317</v>
+        <v>224147</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>266096</v>
+        <v>267498</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3934533815563953</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3564415520151871</v>
+        <v>0.3609993137888295</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4285612232317383</v>
+        <v>0.4308187181652049</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>494</v>
@@ -996,19 +996,19 @@
         <v>423866</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>394130</v>
+        <v>392973</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>461037</v>
+        <v>457742</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3787779492079965</v>
+        <v>0.3787779492079964</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3522056258830811</v>
+        <v>0.3511708926333711</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4119947314041493</v>
+        <v>0.4090508064010731</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>144293</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>122470</v>
+        <v>120517</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>171340</v>
+        <v>168459</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.289669940127863</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2458606442694733</v>
+        <v>0.2419397104377326</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3439668126241885</v>
+        <v>0.3381825792817872</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>202</v>
@@ -1046,19 +1046,19 @@
         <v>164436</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>145370</v>
+        <v>142420</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>187677</v>
+        <v>186092</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2648330985742077</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2341257054276043</v>
+        <v>0.2293750800573999</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3022636580610039</v>
+        <v>0.2997097090303198</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>321</v>
@@ -1067,19 +1067,19 @@
         <v>308729</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>274548</v>
+        <v>276525</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>339144</v>
+        <v>341636</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2758890151101145</v>
+        <v>0.2758890151101144</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2453433170990115</v>
+        <v>0.2471104385587073</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.303068644081826</v>
+        <v>0.3052948599249674</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>10616</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4749</v>
+        <v>5220</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21388</v>
+        <v>21954</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01105712811587093</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00494635735495168</v>
+        <v>0.00543681030203921</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02227547586845181</v>
+        <v>0.0228657334740156</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1192,19 +1192,19 @@
         <v>12178</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7196</v>
+        <v>6669</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21235</v>
+        <v>21544</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01093442658198622</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006461077769567919</v>
+        <v>0.00598763718403633</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01906618604749759</v>
+        <v>0.01934332886004621</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -1213,19 +1213,19 @@
         <v>22795</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14298</v>
+        <v>14309</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35400</v>
+        <v>34796</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01099123246569755</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00689440336476053</v>
+        <v>0.006899726245501969</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01706924890451124</v>
+        <v>0.01677781638630671</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>26862</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18854</v>
+        <v>18392</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38248</v>
+        <v>37447</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02797742998793774</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01963693943609881</v>
+        <v>0.01915562948692481</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03983636222865136</v>
+        <v>0.03900195128187529</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>92</v>
@@ -1263,19 +1263,19 @@
         <v>58095</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>46198</v>
+        <v>47583</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>71069</v>
+        <v>70658</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0521605956504444</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04147881686456036</v>
+        <v>0.04272244889400453</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06380941252595568</v>
+        <v>0.06344059037075528</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>125</v>
@@ -1284,19 +1284,19 @@
         <v>84957</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>70844</v>
+        <v>71200</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>101366</v>
+        <v>102520</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04096476090491463</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03415963932354316</v>
+        <v>0.03433111816554694</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04887657306516444</v>
+        <v>0.04943312685888732</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>99539</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>81300</v>
+        <v>82358</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>117944</v>
+        <v>120879</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1036718892986595</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08467570801772559</v>
+        <v>0.08577784029544226</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1228407214711904</v>
+        <v>0.1258980838787767</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>295</v>
@@ -1334,19 +1334,19 @@
         <v>178854</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>159302</v>
+        <v>159455</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>197915</v>
+        <v>200016</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1605840232967056</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1430291730713129</v>
+        <v>0.1431665387986863</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1776977813949503</v>
+        <v>0.1795839542233391</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>412</v>
@@ -1355,19 +1355,19 @@
         <v>278393</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>250463</v>
+        <v>251310</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>305516</v>
+        <v>306999</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1342359902827547</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1207684207041216</v>
+        <v>0.1211771434099457</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1473141704680061</v>
+        <v>0.1480292740313813</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>433339</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>401108</v>
+        <v>401749</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>468988</v>
+        <v>468235</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.45133059179928</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4177608943377348</v>
+        <v>0.4184288493055877</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.48845975693032</v>
+        <v>0.4876753092945764</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>730</v>
@@ -1405,19 +1405,19 @@
         <v>498470</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>469744</v>
+        <v>468139</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>526444</v>
+        <v>527956</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4475507912886474</v>
+        <v>0.4475507912886473</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4217587757920621</v>
+        <v>0.4203179123139613</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4726673014247115</v>
+        <v>0.4740244726608748</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1164</v>
@@ -1426,19 +1426,19 @@
         <v>931809</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>889103</v>
+        <v>884813</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>978980</v>
+        <v>978956</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4493006871657501</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4287089971497879</v>
+        <v>0.4266404644614391</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4720458804628486</v>
+        <v>0.4720342829108475</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>389780</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>350781</v>
+        <v>352030</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>423567</v>
+        <v>421019</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4059629607982519</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3653450117387668</v>
+        <v>0.366645856513833</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4411529157739895</v>
+        <v>0.438499231626671</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>471</v>
@@ -1476,19 +1476,19 @@
         <v>366175</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>337438</v>
+        <v>338212</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>394808</v>
+        <v>393220</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3287701631822163</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3029682217290422</v>
+        <v>0.3036630462144122</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3544782988133953</v>
+        <v>0.3530522553550196</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>788</v>
@@ -1497,19 +1497,19 @@
         <v>755955</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>711585</v>
+        <v>714026</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>796880</v>
+        <v>803516</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3645073291808831</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3431130600109807</v>
+        <v>0.3442900468284703</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3842404464057507</v>
+        <v>0.3874403093304784</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>6484</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2275</v>
+        <v>2062</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14414</v>
+        <v>13897</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.006205798147275936</v>
+        <v>0.006205798147275935</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00217744261205975</v>
+        <v>0.001973126234497253</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01379473457062367</v>
+        <v>0.01330008521059996</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1622,19 +1622,19 @@
         <v>8736</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4571</v>
+        <v>4291</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17490</v>
+        <v>18348</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008365422911218895</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004377602507663037</v>
+        <v>0.004109070822801925</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01674877390404629</v>
+        <v>0.01756991180285167</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1643,19 +1643,19 @@
         <v>15220</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9177</v>
+        <v>8727</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25601</v>
+        <v>26438</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.007285300767285636</v>
+        <v>0.007285300767285637</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004392628985358423</v>
+        <v>0.004177194484209678</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01225399128804882</v>
+        <v>0.01265490342208966</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>12541</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7172</v>
+        <v>7359</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20183</v>
+        <v>20142</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01200245188264951</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006864068440840352</v>
+        <v>0.007042880042891897</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01931618225783373</v>
+        <v>0.01927634529874765</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1693,19 +1693,19 @@
         <v>18477</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12162</v>
+        <v>12485</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27257</v>
+        <v>28066</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.01769393824643821</v>
+        <v>0.01769393824643822</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01164620622073523</v>
+        <v>0.01195509718326899</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02610152357986995</v>
+        <v>0.02687557570319639</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -1714,19 +1714,19 @@
         <v>31019</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22907</v>
+        <v>22568</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>42687</v>
+        <v>42670</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01484737871625461</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01096449591788128</v>
+        <v>0.01080260320982132</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02043269776001222</v>
+        <v>0.02042428074901114</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>61160</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47833</v>
+        <v>47877</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>75299</v>
+        <v>74922</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05853246954209922</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04577872976954173</v>
+        <v>0.045820901106993</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0720645499877854</v>
+        <v>0.07170327401861658</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>127</v>
@@ -1764,19 +1764,19 @@
         <v>81612</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>68615</v>
+        <v>67131</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>98428</v>
+        <v>96773</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07815148329362974</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06570517158629334</v>
+        <v>0.06428422313185467</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09425377634457882</v>
+        <v>0.09266964294951528</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>202</v>
@@ -1785,19 +1785,19 @@
         <v>142772</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>122568</v>
+        <v>122049</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>164106</v>
+        <v>163217</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.06833916239929547</v>
+        <v>0.06833916239929548</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05866833992848117</v>
+        <v>0.05841971564141856</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07855108987620424</v>
+        <v>0.07812561056852575</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>486276</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>451116</v>
+        <v>453300</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>522807</v>
+        <v>518216</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.4653878501107403</v>
+        <v>0.4653878501107402</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4317385412114699</v>
+        <v>0.4338285361816713</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5003498844826009</v>
+        <v>0.4959557419194269</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>840</v>
@@ -1835,19 +1835,19 @@
         <v>534280</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>508429</v>
+        <v>505119</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>566028</v>
+        <v>564336</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5116229262062381</v>
+        <v>0.5116229262062379</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.486868853698502</v>
+        <v>0.4836991235067598</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5420249466728736</v>
+        <v>0.5404044264093925</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1348</v>
@@ -1856,19 +1856,19 @@
         <v>1020555</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>976270</v>
+        <v>978735</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1064571</v>
+        <v>1066758</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4884987565120505</v>
+        <v>0.4884987565120506</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4673012691856204</v>
+        <v>0.4684810592010862</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5095673414187044</v>
+        <v>0.5106142161578225</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>478422</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>445101</v>
+        <v>444008</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>516656</v>
+        <v>510171</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4578714303172351</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4259820606943664</v>
+        <v>0.4249355900750967</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4944629407940425</v>
+        <v>0.4882565119312449</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>504</v>
@@ -1906,19 +1906,19 @@
         <v>401179</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>371640</v>
+        <v>371831</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>428859</v>
+        <v>431920</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3841662293424751</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3558797421029063</v>
+        <v>0.3560628708213258</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4106724344678648</v>
+        <v>0.4136034917340737</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>926</v>
@@ -1927,19 +1927,19 @@
         <v>879601</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>834556</v>
+        <v>833272</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>924576</v>
+        <v>921493</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4210294016051137</v>
+        <v>0.4210294016051138</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3994682822859455</v>
+        <v>0.3988535773900935</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4425570828820865</v>
+        <v>0.4410815367611728</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>6947</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2548</v>
+        <v>2623</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15974</v>
+        <v>16064</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007122675535520359</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002612854994313191</v>
+        <v>0.00268960072339617</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01637792020355234</v>
+        <v>0.01647053853644317</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2052,19 +2052,19 @@
         <v>3870</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1133</v>
+        <v>1502</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9569</v>
+        <v>9068</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.004260668360421466</v>
+        <v>0.004260668360421465</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00124790829925987</v>
+        <v>0.001653784814651054</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01053606002340933</v>
+        <v>0.009984228152053678</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -2073,19 +2073,19 @@
         <v>10817</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5386</v>
+        <v>5176</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21179</v>
+        <v>19997</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005742625535184612</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002859229576088825</v>
+        <v>0.002747936874789031</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01124408830573671</v>
+        <v>0.01061656781737912</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>12564</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6441</v>
+        <v>6371</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24468</v>
+        <v>23375</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01288159826236678</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006603818002162077</v>
+        <v>0.006532063066422979</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02508725197148523</v>
+        <v>0.02396608303808039</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>24</v>
@@ -2123,19 +2123,19 @@
         <v>18701</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>11275</v>
+        <v>11487</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>30034</v>
+        <v>29312</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02058963887717002</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01241434342622295</v>
+        <v>0.0126468606160118</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03306753895525053</v>
+        <v>0.03227278629262485</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>35</v>
@@ -2144,19 +2144,19 @@
         <v>31264</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>21180</v>
+        <v>21482</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>46004</v>
+        <v>46340</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01659838889294219</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01124459365975897</v>
+        <v>0.0114049190434581</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02442410484403304</v>
+        <v>0.02460226723404773</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>32657</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23098</v>
+        <v>22514</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>45207</v>
+        <v>45087</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03348384774716998</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02368226179561133</v>
+        <v>0.0230837528517907</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04635132485375002</v>
+        <v>0.04622809204541561</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>62</v>
@@ -2194,19 +2194,19 @@
         <v>41622</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31394</v>
+        <v>32591</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>53220</v>
+        <v>53443</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04582678500762763</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03456504845214241</v>
+        <v>0.03588284263422541</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0585963549115593</v>
+        <v>0.05884158061787696</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>101</v>
@@ -2215,19 +2215,19 @@
         <v>74280</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>60135</v>
+        <v>60289</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>91628</v>
+        <v>91943</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03943556957325173</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03192615692330073</v>
+        <v>0.03200761401728949</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04864620960983435</v>
+        <v>0.04881344531508915</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>507471</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>473633</v>
+        <v>473940</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>543560</v>
+        <v>544217</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5203132832444882</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4856182517495158</v>
+        <v>0.4859337629558031</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5573148574812297</v>
+        <v>0.5579891282420445</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>745</v>
@@ -2265,19 +2265,19 @@
         <v>472424</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>443780</v>
+        <v>446964</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>497352</v>
+        <v>497970</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5201468326183309</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4886090516659015</v>
+        <v>0.4921148262854412</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5475928663215324</v>
+        <v>0.5482738645584107</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1270</v>
@@ -2286,19 +2286,19 @@
         <v>979895</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>931727</v>
+        <v>928852</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1024921</v>
+        <v>1022298</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.5202330213259706</v>
+        <v>0.5202330213259707</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4946602280786919</v>
+        <v>0.4931339573160866</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5441378255982973</v>
+        <v>0.5427452677375386</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>415680</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>378802</v>
+        <v>377471</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>451909</v>
+        <v>448420</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4261985952104547</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3883876758390235</v>
+        <v>0.3870226266588183</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4633452326205936</v>
+        <v>0.45976750401676</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>484</v>
@@ -2336,19 +2336,19 @@
         <v>371635</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>343329</v>
+        <v>344578</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>399537</v>
+        <v>396118</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4091760751364499</v>
+        <v>0.40917607513645</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.378010705728657</v>
+        <v>0.3793862031056882</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.439896680735882</v>
+        <v>0.4361322606095611</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>849</v>
@@ -2357,19 +2357,19 @@
         <v>787314</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>742654</v>
+        <v>739704</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>834853</v>
+        <v>837647</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4179903946726508</v>
+        <v>0.4179903946726507</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.394280411522083</v>
+        <v>0.3927138335978631</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4432295353874626</v>
+        <v>0.4447125933803054</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>43043</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>31050</v>
+        <v>30784</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>60166</v>
+        <v>58605</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01237423564853185</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008926336705363948</v>
+        <v>0.008849879265947715</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01729665114251558</v>
+        <v>0.01684800833452935</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>69</v>
@@ -2482,19 +2482,19 @@
         <v>51507</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>38525</v>
+        <v>39942</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>68001</v>
+        <v>71924</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01396916592229824</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01044813946634646</v>
+        <v>0.01083264853250885</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01844239624965622</v>
+        <v>0.01950621902089997</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>109</v>
@@ -2503,19 +2503,19 @@
         <v>94551</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>75580</v>
+        <v>77454</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>116763</v>
+        <v>117840</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0131949319111819</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01054743522933531</v>
+        <v>0.01080899245281171</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01629475000857887</v>
+        <v>0.0164450458083913</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>97565</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>80662</v>
+        <v>80086</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>117884</v>
+        <v>119604</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.02804827472632324</v>
+        <v>0.02804827472632325</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02318907014542932</v>
+        <v>0.02302332876030723</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03388959406274469</v>
+        <v>0.03438402022574056</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>246</v>
@@ -2553,19 +2553,19 @@
         <v>161952</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>139772</v>
+        <v>140999</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>183579</v>
+        <v>182777</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04392270069792266</v>
+        <v>0.04392270069792265</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0379073451516294</v>
+        <v>0.03824009909476767</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04978794468323457</v>
+        <v>0.04957054314189211</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>358</v>
@@ -2574,19 +2574,19 @@
         <v>259517</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>234880</v>
+        <v>233207</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>292503</v>
+        <v>287679</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03621670834432777</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03277844284483</v>
+        <v>0.03254500247520159</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04082003998832641</v>
+        <v>0.04014680822013453</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>303030</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>270856</v>
+        <v>270496</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>336439</v>
+        <v>341499</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.08711601338256149</v>
+        <v>0.0871160133825615</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07786634554131186</v>
+        <v>0.0777628878040361</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09672032333894752</v>
+        <v>0.09817519601347742</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>667</v>
@@ -2624,19 +2624,19 @@
         <v>420858</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>388772</v>
+        <v>392103</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>454131</v>
+        <v>456207</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1141398945746508</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1054379108312603</v>
+        <v>0.1063413627058808</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1231638435449575</v>
+        <v>0.1237267334205282</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1002</v>
@@ -2645,19 +2645,19 @@
         <v>723888</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>678219</v>
+        <v>678171</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>777588</v>
+        <v>774570</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.101021573181281</v>
+        <v>0.1010215731812811</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09464814943727977</v>
+        <v>0.09464151687719846</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1085154919629523</v>
+        <v>0.108094436870085</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>1606655</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1541779</v>
+        <v>1543091</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1672833</v>
+        <v>1669798</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.4618857067737564</v>
+        <v>0.4618857067737565</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4432349991291516</v>
+        <v>0.4436123588272318</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4809107715334371</v>
+        <v>0.4800382595047908</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2649</v>
@@ -2695,19 +2695,19 @@
         <v>1749471</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1695799</v>
+        <v>1700210</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1806636</v>
+        <v>1805757</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4744696319328441</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.459913562323948</v>
+        <v>0.4611098591182519</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4899732574578812</v>
+        <v>0.4897349695293528</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4276</v>
@@ -2716,19 +2716,19 @@
         <v>3356126</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3272075</v>
+        <v>3275039</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3440837</v>
+        <v>3447941</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4683609618475365</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4566313839537723</v>
+        <v>0.4570449741702053</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4801828272506215</v>
+        <v>0.481174101921468</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>1428175</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1361262</v>
+        <v>1364168</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1492068</v>
+        <v>1492747</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.4105757694688269</v>
+        <v>0.410575769468827</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3913394227636646</v>
+        <v>0.3921750657403332</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4289440734174255</v>
+        <v>0.4291391418034531</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1661</v>
@@ -2766,19 +2766,19 @@
         <v>1303425</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1250727</v>
+        <v>1249004</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1352529</v>
+        <v>1355365</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3534986068722842</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3392066720439016</v>
+        <v>0.3387393504763372</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.366816146870648</v>
+        <v>0.3675851463743982</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2884</v>
@@ -2787,19 +2787,19 @@
         <v>2731600</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2645277</v>
+        <v>2639742</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2815868</v>
+        <v>2813156</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3812058247156728</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3691591745278447</v>
+        <v>0.3683867263066923</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3929657813252319</v>
+        <v>0.3925873776701885</v>
       </c>
     </row>
     <row r="33">
